--- a/data/species_selection.xlsx
+++ b/data/species_selection.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emily\OneDrive\Documents\GitHub\rockfish-edm\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ccec78e4bf86cf8e/Documents/GitHub/rockfish-edm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F05932A-586D-4693-A17C-A2B4246EE4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{4F05932A-586D-4693-A17C-A2B4246EE4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9774138-9731-4B1A-A187-54DE162A3677}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03017399-B8A3-4F5C-AF08-638E7E9A0DE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03017399-B8A3-4F5C-AF08-638E7E9A0DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -539,6 +538,7 @@
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
